--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTG\Bao gia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148221B4-608B-414C-B70C-86351A1E00EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FCA6BC-D7DA-4AC0-9247-36FBDF98E120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{DB710158-D6D5-4C09-A916-EA083BC72CD7}"/>
+    <workbookView xWindow="3855" yWindow="4695" windowWidth="15375" windowHeight="7875" xr2:uid="{DB710158-D6D5-4C09-A916-EA083BC72CD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>initial</t>
   </si>
@@ -112,6 +112,45 @@
   </si>
   <si>
     <t>Lít</t>
+  </si>
+  <si>
+    <t>Nhot Castrol</t>
+  </si>
+  <si>
+    <t>Nhớt Castrol</t>
+  </si>
+  <si>
+    <t>Castrol</t>
+  </si>
+  <si>
+    <t>Bình</t>
+  </si>
+  <si>
+    <t>Coc binh dien T016 am</t>
+  </si>
+  <si>
+    <t>Coc binh dien T016 duong</t>
+  </si>
+  <si>
+    <t>Cọc bình điện T06 âm</t>
+  </si>
+  <si>
+    <t>Cọc bình điện T06 dương</t>
+  </si>
+  <si>
+    <t>Đồng Nai</t>
+  </si>
+  <si>
+    <t>Binh acquy Dong Nai</t>
+  </si>
+  <si>
+    <t>Bình ắc quy Đồng Nai</t>
+  </si>
+  <si>
+    <t>Phi gui hang</t>
+  </si>
+  <si>
+    <t>Phí gửi hàng</t>
   </si>
 </sst>
 </file>
@@ -472,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC340861-806D-4F42-8622-1E0C2E3DDD97}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,43 +571,40 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -576,10 +612,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -587,29 +623,96 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTG\Bao gia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FCA6BC-D7DA-4AC0-9247-36FBDF98E120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3E4563-3923-42B2-89A7-58CBBF3FC06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="4695" windowWidth="15375" windowHeight="7875" xr2:uid="{DB710158-D6D5-4C09-A916-EA083BC72CD7}"/>
+    <workbookView xWindow="690" yWindow="1290" windowWidth="5805" windowHeight="885" xr2:uid="{DB710158-D6D5-4C09-A916-EA083BC72CD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>initial</t>
   </si>
@@ -151,6 +151,24 @@
   </si>
   <si>
     <t>Phí gửi hàng</t>
+  </si>
+  <si>
+    <t>Phu kien sua chua lap dat</t>
+  </si>
+  <si>
+    <t>Phụ kiện sửa chữa lắp đặt</t>
+  </si>
+  <si>
+    <t>Nhan cong giam sat sua chua</t>
+  </si>
+  <si>
+    <t>Nhân công giám sát sửa chữa</t>
+  </si>
+  <si>
+    <t>Cam bien ap luc</t>
+  </si>
+  <si>
+    <t>Cảm biến áp lực</t>
   </si>
 </sst>
 </file>
@@ -511,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC340861-806D-4F42-8622-1E0C2E3DDD97}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,6 +733,36 @@
         <v>32</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
